--- a/Ergotronix/MachineTasks.xlsx
+++ b/Ergotronix/MachineTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PYTHON SCRIPTS\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF09442F-3199-459D-8851-A03DE873A199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD88D22B-EEB8-4275-B4BE-2CEFA2693005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
   <si>
     <t>Machine</t>
   </si>
@@ -123,12 +123,6 @@
     <t>INDEXER PIVOT BLOCK LEFT</t>
   </si>
   <si>
-    <t>EH211214Y</t>
-  </si>
-  <si>
-    <t>INDEXER PIVOT BLOCK RIGHT</t>
-  </si>
-  <si>
     <t>EH211214X</t>
   </si>
   <si>
@@ -165,12 +159,6 @@
     <t>CLAMP RIGHT PLATE</t>
   </si>
   <si>
-    <t>Hanger Clasp 001-L</t>
-  </si>
-  <si>
-    <t>CLAMP LEFT PLATE</t>
-  </si>
-  <si>
     <t>EH211214N</t>
   </si>
   <si>
@@ -615,15 +603,29 @@
     <t>Top View - Sizing etc</t>
   </si>
   <si>
-    <t>END</t>
+    <t>Turn + Size</t>
+  </si>
+  <si>
+    <t>Front Holes</t>
+  </si>
+  <si>
+    <t>Side Holes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -651,9 +653,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -936,10 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,37 +963,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1001,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <v>30</v>
@@ -1015,7 +1022,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1030,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
@@ -1044,7 +1051,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1059,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
         <v>10</v>
@@ -1073,7 +1080,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1088,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
@@ -1102,7 +1109,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1117,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>30</v>
@@ -1131,7 +1138,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1146,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
         <v>15</v>
@@ -1160,7 +1167,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1175,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1189,7 +1196,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1204,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1218,7 +1225,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1233,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1247,7 +1254,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1262,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
         <v>20</v>
@@ -1276,7 +1283,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1291,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <v>30</v>
@@ -1305,7 +1312,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1320,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
         <v>15</v>
@@ -1334,113 +1341,329 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1448,13 +1671,28 @@
       <c r="D25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1462,989 +1700,977 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B70" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B75" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B76" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B84" s="1">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B86" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B94" s="1">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>163</v>
+      </c>
+      <c r="D104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2452,7 +2678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC3DCA8-5505-488E-9876-AC52C2148282}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2486,7 +2714,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2494,7 +2722,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3</v>

--- a/Ergotronix/MachineTasks.xlsx
+++ b/Ergotronix/MachineTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PYTHON SCRIPTS\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD88D22B-EEB8-4275-B4BE-2CEFA2693005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFA1DF-BFDE-459D-88D4-1FE3259849DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="226">
   <si>
     <t>Machine</t>
   </si>
@@ -171,12 +171,6 @@
     <t>RIGHT TOGGLE BEAM</t>
   </si>
   <si>
-    <t>EH211214P-L</t>
-  </si>
-  <si>
-    <t>LEFT TOGGLE BEAM</t>
-  </si>
-  <si>
     <t>EH211214Q</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>Limit Switch Cam A</t>
   </si>
   <si>
-    <t>Limit Switch Cam B</t>
-  </si>
-  <si>
     <t>ET211215N</t>
   </si>
   <si>
@@ -246,18 +237,6 @@
     <t>Bridge Bracket</t>
   </si>
   <si>
-    <t>PUSH26</t>
-  </si>
-  <si>
-    <t>Distal Arm Right Side</t>
-  </si>
-  <si>
-    <t>PUSH25</t>
-  </si>
-  <si>
-    <t>Distal Arm Left Side</t>
-  </si>
-  <si>
     <t>ET210402-D04</t>
   </si>
   <si>
@@ -381,12 +360,6 @@
     <t>ET220310-01</t>
   </si>
   <si>
-    <t>ET220310-06</t>
-  </si>
-  <si>
-    <t>PLATE, HINGE FIXED</t>
-  </si>
-  <si>
     <t>ET220310-07</t>
   </si>
   <si>
@@ -420,12 +393,6 @@
     <t>Grip Arm Inboard Pivot Rod</t>
   </si>
   <si>
-    <t>ET210501-B02</t>
-  </si>
-  <si>
-    <t>Grip Arm Finger Tie</t>
-  </si>
-  <si>
     <t>ET210501-A10</t>
   </si>
   <si>
@@ -522,9 +489,6 @@
     <t>TUBE, 1 x 2 x 0.12 x 24</t>
   </si>
   <si>
-    <t>BA001</t>
-  </si>
-  <si>
     <t>QR Top Pin</t>
   </si>
   <si>
@@ -610,6 +574,144 @@
   </si>
   <si>
     <t>Side Holes</t>
+  </si>
+  <si>
+    <t>Side Slot</t>
+  </si>
+  <si>
+    <t>Off-Angle Hole</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Sub_Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Airfoil </t>
+  </si>
+  <si>
+    <t>4-BASE</t>
+  </si>
+  <si>
+    <t>5-INDEXER</t>
+  </si>
+  <si>
+    <t>6-CLASP</t>
+  </si>
+  <si>
+    <t>7-LIMIT</t>
+  </si>
+  <si>
+    <t>ACS  Technologies</t>
+  </si>
+  <si>
+    <t>1-BASE</t>
+  </si>
+  <si>
+    <t>Gemcor</t>
+  </si>
+  <si>
+    <t>3-TOP</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>5-ELEVATOR</t>
+  </si>
+  <si>
+    <t>Upstate</t>
+  </si>
+  <si>
+    <t>1-Base</t>
+  </si>
+  <si>
+    <t>2-Frame Weldment</t>
+  </si>
+  <si>
+    <t>3-Frame Assembly</t>
+  </si>
+  <si>
+    <t>4-Pusher</t>
+  </si>
+  <si>
+    <t>John Deere</t>
+  </si>
+  <si>
+    <t>3-MOTOR ASSM</t>
+  </si>
+  <si>
+    <t>Brooks Automation</t>
+  </si>
+  <si>
+    <t>GRIP ARM</t>
+  </si>
+  <si>
+    <t>GRIP BODY</t>
+  </si>
+  <si>
+    <t>GRIP MOTOR</t>
+  </si>
+  <si>
+    <t>Tri-State Upfield</t>
+  </si>
+  <si>
+    <t>1-TURN</t>
+  </si>
+  <si>
+    <t>2-GRIPPER</t>
+  </si>
+  <si>
+    <t>Repligen</t>
+  </si>
+  <si>
+    <t>1-Modified ET</t>
+  </si>
+  <si>
+    <t>2-End Effector</t>
+  </si>
+  <si>
+    <t>1-QUICK RELEASE</t>
+  </si>
+  <si>
+    <t>2-FORK SLEEVES</t>
+  </si>
+  <si>
+    <t>Ergotronix</t>
+  </si>
+  <si>
+    <t>1-R+D</t>
+  </si>
+  <si>
+    <t>EI-14263-H</t>
+  </si>
+  <si>
+    <t>Anti Torque Arch</t>
+  </si>
+  <si>
+    <t>Motor Cylinder Stand</t>
+  </si>
+  <si>
+    <t>EIP424 for TiMo</t>
+  </si>
+  <si>
+    <t>Ergo-I Bottom Plate - TiMo</t>
+  </si>
+  <si>
+    <t>EIP423 for TiMO</t>
+  </si>
+  <si>
+    <t>Ergo-I Top Plate - TiMO</t>
+  </si>
+  <si>
+    <t>Top Attachment</t>
+  </si>
+  <si>
+    <t>Bottom Locater</t>
   </si>
 </sst>
 </file>
@@ -942,11 +1044,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,11 +1062,13 @@
     <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -990,10 +1094,16 @@
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1008,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -1019,10 +1129,16 @@
       <c r="I2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1037,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -1048,10 +1164,16 @@
       <c r="I3" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1066,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1077,10 +1199,16 @@
       <c r="I4" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1095,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1106,10 +1234,16 @@
       <c r="I5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1124,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -1135,10 +1269,16 @@
       <c r="I6" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1153,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -1164,10 +1304,16 @@
       <c r="I7" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1182,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1193,10 +1339,16 @@
       <c r="I8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1211,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1222,10 +1374,16 @@
       <c r="I9" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1240,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1251,10 +1409,16 @@
       <c r="I10" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1269,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1280,10 +1444,16 @@
       <c r="I11" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1298,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1309,10 +1479,16 @@
       <c r="I12" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1327,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1338,10 +1514,16 @@
       <c r="I13" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1356,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -1367,10 +1549,16 @@
       <c r="I14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1385,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -1396,10 +1584,16 @@
       <c r="I15" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1414,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -1425,10 +1619,16 @@
       <c r="I16" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1443,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -1454,10 +1654,16 @@
       <c r="I17" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1472,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1483,10 +1689,16 @@
       <c r="I18" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -1501,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -1512,10 +1724,16 @@
       <c r="I19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1530,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -1541,10 +1759,16 @@
       <c r="I20" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1559,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1570,10 +1794,16 @@
       <c r="I21" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -1588,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1599,13 +1829,19 @@
       <c r="I22" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1617,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1628,10 +1864,16 @@
       <c r="I23" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1646,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1657,10 +1899,16 @@
       <c r="I24" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -1675,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1686,10 +1934,16 @@
       <c r="I25" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -1704,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -1715,957 +1969,1736 @@
       <c r="I26" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>30</v>
+      </c>
+      <c r="I27" s="1">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1">
+        <v>30</v>
+      </c>
+      <c r="J33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>30</v>
+      </c>
+      <c r="I34" s="1">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>30</v>
+      </c>
+      <c r="I37" s="1">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>15</v>
+      </c>
+      <c r="I39" s="1">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>30</v>
+      </c>
+      <c r="I42" s="1">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>30</v>
+      </c>
+      <c r="I44" s="1">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" t="s">
+        <v>196</v>
+      </c>
+      <c r="K51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s">
+        <v>196</v>
+      </c>
+      <c r="K54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s">
+        <v>196</v>
+      </c>
+      <c r="K56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s">
+        <v>196</v>
+      </c>
+      <c r="K58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" t="s">
+        <v>196</v>
+      </c>
+      <c r="K59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s">
+        <v>196</v>
+      </c>
+      <c r="K60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" t="s">
+        <v>196</v>
+      </c>
+      <c r="K61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>196</v>
+      </c>
+      <c r="K62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J63" t="s">
+        <v>196</v>
+      </c>
+      <c r="K63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J64" t="s">
+        <v>196</v>
+      </c>
+      <c r="K64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>196</v>
+      </c>
+      <c r="K65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="J66" t="s">
+        <v>196</v>
+      </c>
+      <c r="K66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="J67" t="s">
+        <v>196</v>
+      </c>
+      <c r="K67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" t="s">
+        <v>196</v>
+      </c>
+      <c r="K68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" t="s">
+        <v>196</v>
+      </c>
+      <c r="K69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" t="s">
+        <v>196</v>
+      </c>
+      <c r="K70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" t="s">
+        <v>196</v>
+      </c>
+      <c r="K71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" t="s">
+        <v>196</v>
+      </c>
+      <c r="K72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" t="s">
+        <v>196</v>
+      </c>
+      <c r="K73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+      <c r="J74" t="s">
+        <v>196</v>
+      </c>
+      <c r="K74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="J75" t="s">
+        <v>201</v>
+      </c>
+      <c r="K75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" t="s">
+        <v>118</v>
+      </c>
+      <c r="J76" t="s">
+        <v>203</v>
+      </c>
+      <c r="K76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="J77" t="s">
+        <v>203</v>
+      </c>
+      <c r="K77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="J78" t="s">
+        <v>203</v>
+      </c>
+      <c r="K78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J79" t="s">
+        <v>203</v>
+      </c>
+      <c r="K79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="J80" t="s">
+        <v>207</v>
+      </c>
+      <c r="K80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>128</v>
+      </c>
+      <c r="J81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="J82" t="s">
+        <v>207</v>
+      </c>
+      <c r="K82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" t="s">
+        <v>207</v>
+      </c>
+      <c r="K83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="J84" t="s">
+        <v>210</v>
+      </c>
+      <c r="K84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85" t="s">
+        <v>210</v>
+      </c>
+      <c r="K85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" t="s">
         <v>62</v>
       </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="1">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="1">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>175</v>
-      </c>
-      <c r="B68" s="1">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69" s="1">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="1">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>175</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78" s="1">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" s="1">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>175</v>
-      </c>
-      <c r="B80" s="1">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="1">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>175</v>
-      </c>
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>176</v>
-      </c>
-      <c r="B83" s="1">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" s="1">
-        <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" s="1">
-        <v>2</v>
-      </c>
-      <c r="C85" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>177</v>
-      </c>
-      <c r="B86" s="1">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>130</v>
-      </c>
-      <c r="D86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>210</v>
+      </c>
+      <c r="K86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B87" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="J87" t="s">
+        <v>210</v>
+      </c>
+      <c r="K87" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="J88" t="s">
+        <v>210</v>
+      </c>
+      <c r="K88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="J89" t="s">
+        <v>210</v>
+      </c>
+      <c r="K89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J90" t="s">
+        <v>210</v>
+      </c>
+      <c r="K90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J91" t="s">
+        <v>210</v>
+      </c>
+      <c r="K91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="J92" t="s">
+        <v>210</v>
+      </c>
+      <c r="K92" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="J93" t="s">
+        <v>210</v>
+      </c>
+      <c r="K93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="J94" t="s">
+        <v>203</v>
+      </c>
+      <c r="K94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="J95" t="s">
+        <v>203</v>
+      </c>
+      <c r="K95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="J96" t="s">
+        <v>203</v>
+      </c>
+      <c r="K96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J97" t="s">
+        <v>203</v>
+      </c>
+      <c r="K97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="J98" t="s">
+        <v>215</v>
+      </c>
+      <c r="K98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="J99" t="s">
+        <v>215</v>
+      </c>
+      <c r="K99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J100" t="s">
+        <v>215</v>
+      </c>
+      <c r="K100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B101" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="J101" t="s">
+        <v>215</v>
+      </c>
+      <c r="K101" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="J102" t="s">
+        <v>215</v>
+      </c>
+      <c r="K102" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="B103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>180</v>
-      </c>
-      <c r="B104" s="1">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>180</v>
-      </c>
-      <c r="B105" s="1">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>164</v>
-      </c>
-      <c r="D105" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" s="1">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>166</v>
-      </c>
-      <c r="D106" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>180</v>
-      </c>
-      <c r="B107" s="1">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D107" t="s">
-        <v>169</v>
+        <v>225</v>
+      </c>
+      <c r="J103" t="s">
+        <v>215</v>
+      </c>
+      <c r="K103" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
